--- a/make-table-for-models/input-files/plumage-color_metadata.xlsx
+++ b/make-table-for-models/input-files/plumage-color_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heath\Documents\CU Boulder\BARS fieldwork\2022 Field and Lab\Paternity assignment methods\barn-swallow-gps\hypothesis-test-models\input-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heath\Documents\CU Boulder\BARS fieldwork\2022 Field and Lab\Paternity assignment methods\barn-swallow-gps\make-table-for-models\input-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8768AD06-5884-4717-8E52-B7ABB93CDE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB1F01-29D1-4BD5-A1C6-D12786FE2212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2496" yWindow="1260" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30315" yWindow="5835" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
   <si>
     <t>Each row in this data table represents a single social pair (female and male)</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>Date that feather samples were colleted from the male (MM_DD_YY)</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>Mass of each female in grams, taken at the time of tagging</t>
   </si>
 </sst>
 </file>
@@ -1077,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1155,6 +1161,14 @@
       </c>
       <c r="B10" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
